--- a/docs/math_stuff.xlsx
+++ b/docs/math_stuff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\python_learning\team_project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D9BDC7-22E5-4080-AE20-CE4287AE58B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F506CF02-C386-4CC4-AB6C-99E5F11E5B4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="6910" xr2:uid="{90D94824-A6D7-4CA6-B1FC-4C1AA4DBBDD0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="6910" activeTab="1" xr2:uid="{90D94824-A6D7-4CA6-B1FC-4C1AA4DBBDD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,6 +125,1288 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$35:$AP$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.4850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.851</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.927</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.048</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0790000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.6840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.794</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.8889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.944</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.0490000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.1340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.2149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.3049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.4649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.6150000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$36:$AP$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F94-4323-980F-77F2CFEA3682}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$35:$AP$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.4850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.851</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.927</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.048</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0790000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.6840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.794</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.8889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.944</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.0490000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.1340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.2149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.3049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.4649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.6150000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$37:$AP$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F94-4323-980F-77F2CFEA3682}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="456842336"/>
+        <c:axId val="456843976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="456842336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456843976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.25"/>
+        <c:minorUnit val="0.25"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="456843976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="-20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456842336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>98424</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3B40C2-4BBB-45DA-B753-72BB0491CDAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DDD813-55DC-4541-B1BF-EA41F70F485F}">
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T20" sqref="T20:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1538,7 +2820,9 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="T20" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21">
@@ -1568,7 +2852,9 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
+      <c r="T21" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F22" s="1">
@@ -1586,7 +2872,9 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
+      <c r="T22" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -1743,208 +3031,3996 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992237BD-30A8-472E-9882-7D19CD3F7D68}">
-  <dimension ref="A2:V18"/>
+  <dimension ref="A2:AP37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.26953125" customWidth="1"/>
+    <col min="2" max="38" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="5.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B2">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="C2">
+        <v>-19</v>
+      </c>
+      <c r="D2">
+        <v>-18</v>
+      </c>
+      <c r="E2">
+        <v>-17</v>
+      </c>
+      <c r="F2">
+        <v>-16</v>
+      </c>
+      <c r="G2">
+        <v>-15</v>
+      </c>
+      <c r="H2">
+        <v>-14</v>
+      </c>
+      <c r="I2">
+        <v>-13</v>
+      </c>
+      <c r="J2">
+        <v>-12</v>
+      </c>
+      <c r="K2">
+        <v>-11</v>
+      </c>
+      <c r="L2">
+        <v>-10</v>
+      </c>
+      <c r="M2">
+        <v>-9</v>
+      </c>
+      <c r="N2">
+        <v>-8</v>
+      </c>
+      <c r="O2">
+        <v>-7</v>
+      </c>
+      <c r="P2">
+        <v>-6</v>
+      </c>
+      <c r="Q2">
+        <v>-5</v>
+      </c>
+      <c r="R2">
+        <v>-4</v>
+      </c>
+      <c r="S2">
+        <v>-3</v>
+      </c>
+      <c r="T2">
+        <v>-2</v>
+      </c>
+      <c r="U2">
+        <v>-1</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="X2">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="Y2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="Z2">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="AA2">
         <v>5</v>
       </c>
-      <c r="H2">
+      <c r="AB2">
         <v>6</v>
       </c>
-      <c r="I2">
+      <c r="AC2">
         <v>7</v>
       </c>
-      <c r="J2">
+      <c r="AD2">
         <v>8</v>
       </c>
-      <c r="K2">
+      <c r="AE2">
         <v>9</v>
       </c>
-      <c r="L2">
+      <c r="AF2">
         <v>10</v>
       </c>
-      <c r="M2">
+      <c r="AG2">
         <v>11</v>
       </c>
-      <c r="N2">
+      <c r="AH2">
         <v>12</v>
       </c>
-      <c r="O2">
+      <c r="AI2">
         <v>13</v>
       </c>
-      <c r="P2">
+      <c r="AJ2">
         <v>14</v>
       </c>
-      <c r="Q2">
+      <c r="AK2">
         <v>15</v>
       </c>
-      <c r="R2">
+      <c r="AL2">
         <v>16</v>
       </c>
-      <c r="S2">
+      <c r="AM2">
         <v>17</v>
       </c>
-      <c r="T2">
+      <c r="AN2">
         <v>18</v>
       </c>
-      <c r="U2">
+      <c r="AO2">
         <v>19</v>
       </c>
-      <c r="V2">
+      <c r="AP2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>7500</v>
+        <v>395</v>
+      </c>
+      <c r="C3">
+        <v>365</v>
+      </c>
+      <c r="D3">
+        <v>335</v>
+      </c>
+      <c r="E3">
+        <v>305</v>
+      </c>
+      <c r="F3">
+        <v>275</v>
+      </c>
+      <c r="G3">
+        <v>245</v>
+      </c>
+      <c r="H3">
+        <v>215</v>
+      </c>
+      <c r="I3">
+        <v>195</v>
+      </c>
+      <c r="J3">
+        <v>175</v>
+      </c>
+      <c r="K3">
+        <v>155</v>
+      </c>
+      <c r="L3">
+        <v>135</v>
+      </c>
+      <c r="M3">
+        <v>115</v>
+      </c>
+      <c r="N3">
+        <v>105</v>
+      </c>
+      <c r="O3">
+        <v>95</v>
+      </c>
+      <c r="P3">
+        <v>85</v>
+      </c>
+      <c r="Q3">
+        <v>78</v>
+      </c>
+      <c r="R3">
+        <v>71</v>
+      </c>
+      <c r="S3">
+        <v>68</v>
+      </c>
+      <c r="T3">
+        <v>60</v>
+      </c>
+      <c r="U3">
+        <v>55</v>
+      </c>
+      <c r="V3">
+        <v>50</v>
+      </c>
+      <c r="W3">
+        <v>45</v>
+      </c>
+      <c r="X3">
+        <v>40</v>
+      </c>
+      <c r="Y3">
+        <v>35</v>
+      </c>
+      <c r="Z3">
+        <v>30</v>
+      </c>
+      <c r="AA3">
+        <v>25</v>
+      </c>
+      <c r="AB3">
+        <v>20</v>
+      </c>
+      <c r="AC3">
+        <v>15</v>
+      </c>
+      <c r="AD3">
+        <v>10</v>
+      </c>
+      <c r="AE3">
+        <v>5</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>25000</v>
+        <v>125</v>
+      </c>
+      <c r="C4">
+        <v>115</v>
+      </c>
+      <c r="D4">
+        <v>105</v>
+      </c>
+      <c r="E4">
+        <v>105</v>
+      </c>
+      <c r="F4">
+        <v>105</v>
+      </c>
+      <c r="G4">
+        <v>105</v>
+      </c>
+      <c r="H4">
+        <v>105</v>
+      </c>
+      <c r="I4">
+        <v>105</v>
+      </c>
+      <c r="J4">
+        <v>105</v>
+      </c>
+      <c r="K4">
+        <v>105</v>
+      </c>
+      <c r="L4">
+        <v>105</v>
+      </c>
+      <c r="M4">
+        <v>105</v>
+      </c>
+      <c r="N4">
+        <v>105</v>
+      </c>
+      <c r="O4">
+        <v>105</v>
+      </c>
+      <c r="P4">
+        <v>105</v>
+      </c>
+      <c r="Q4">
+        <v>105</v>
+      </c>
+      <c r="R4">
+        <v>105</v>
+      </c>
+      <c r="S4">
+        <v>105</v>
+      </c>
+      <c r="T4">
+        <v>100</v>
+      </c>
+      <c r="U4">
+        <v>100</v>
+      </c>
+      <c r="V4">
+        <v>100</v>
+      </c>
+      <c r="W4">
+        <v>95</v>
+      </c>
+      <c r="X4">
+        <v>90</v>
+      </c>
+      <c r="Y4">
+        <v>85</v>
+      </c>
+      <c r="Z4">
+        <v>80</v>
+      </c>
+      <c r="AA4">
+        <v>75</v>
+      </c>
+      <c r="AB4">
+        <v>70</v>
+      </c>
+      <c r="AC4">
+        <v>65</v>
+      </c>
+      <c r="AD4">
+        <v>60</v>
+      </c>
+      <c r="AE4">
+        <v>50</v>
+      </c>
+      <c r="AF4">
+        <v>45</v>
+      </c>
+      <c r="AG4">
+        <v>40</v>
+      </c>
+      <c r="AH4">
+        <v>35</v>
+      </c>
+      <c r="AI4">
+        <v>30</v>
+      </c>
+      <c r="AJ4">
+        <v>25</v>
+      </c>
+      <c r="AK4">
+        <v>20</v>
+      </c>
+      <c r="AL4">
+        <v>15</v>
+      </c>
+      <c r="AM4">
+        <v>10</v>
+      </c>
+      <c r="AN4">
+        <v>5</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>35000</v>
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>220</v>
+      </c>
+      <c r="E5">
+        <v>220</v>
+      </c>
+      <c r="F5">
+        <v>220</v>
+      </c>
+      <c r="G5">
+        <v>225</v>
+      </c>
+      <c r="H5">
+        <v>230</v>
+      </c>
+      <c r="I5">
+        <v>230</v>
+      </c>
+      <c r="J5">
+        <v>230</v>
+      </c>
+      <c r="K5">
+        <v>235</v>
+      </c>
+      <c r="L5">
+        <v>235</v>
+      </c>
+      <c r="M5">
+        <v>235</v>
+      </c>
+      <c r="N5">
+        <v>235</v>
+      </c>
+      <c r="O5">
+        <v>225</v>
+      </c>
+      <c r="P5">
+        <v>225</v>
+      </c>
+      <c r="Q5">
+        <v>225</v>
+      </c>
+      <c r="R5">
+        <v>225</v>
+      </c>
+      <c r="S5">
+        <v>225</v>
+      </c>
+      <c r="T5">
+        <v>225</v>
+      </c>
+      <c r="U5">
+        <v>225</v>
+      </c>
+      <c r="V5">
+        <v>225</v>
+      </c>
+      <c r="W5">
+        <v>215</v>
+      </c>
+      <c r="X5">
+        <v>210</v>
+      </c>
+      <c r="Y5">
+        <v>205</v>
+      </c>
+      <c r="Z5">
+        <v>200</v>
+      </c>
+      <c r="AA5">
+        <v>195</v>
+      </c>
+      <c r="AB5">
+        <v>185</v>
+      </c>
+      <c r="AC5">
+        <v>175</v>
+      </c>
+      <c r="AD5">
+        <v>165</v>
+      </c>
+      <c r="AE5">
+        <v>155</v>
+      </c>
+      <c r="AF5">
+        <v>145</v>
+      </c>
+      <c r="AG5">
+        <v>135</v>
+      </c>
+      <c r="AH5">
+        <v>125</v>
+      </c>
+      <c r="AI5">
+        <v>115</v>
+      </c>
+      <c r="AJ5">
+        <v>100</v>
+      </c>
+      <c r="AK5">
+        <v>85</v>
+      </c>
+      <c r="AL5">
+        <v>65</v>
+      </c>
+      <c r="AM5">
+        <v>45</v>
+      </c>
+      <c r="AN5">
+        <v>25</v>
+      </c>
+      <c r="AO5">
+        <v>5</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>25000</v>
+        <v>180</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>215</v>
+      </c>
+      <c r="E6">
+        <v>225</v>
+      </c>
+      <c r="F6">
+        <v>235</v>
+      </c>
+      <c r="G6">
+        <v>245</v>
+      </c>
+      <c r="H6">
+        <v>250</v>
+      </c>
+      <c r="I6">
+        <v>260</v>
+      </c>
+      <c r="J6">
+        <v>265</v>
+      </c>
+      <c r="K6">
+        <v>275</v>
+      </c>
+      <c r="L6">
+        <v>280</v>
+      </c>
+      <c r="M6">
+        <v>285</v>
+      </c>
+      <c r="N6">
+        <v>285</v>
+      </c>
+      <c r="O6">
+        <v>285</v>
+      </c>
+      <c r="P6">
+        <v>285</v>
+      </c>
+      <c r="Q6">
+        <v>285</v>
+      </c>
+      <c r="R6">
+        <v>285</v>
+      </c>
+      <c r="S6">
+        <v>285</v>
+      </c>
+      <c r="T6">
+        <v>285</v>
+      </c>
+      <c r="U6">
+        <v>285</v>
+      </c>
+      <c r="V6">
+        <v>285</v>
+      </c>
+      <c r="W6">
+        <v>290</v>
+      </c>
+      <c r="X6">
+        <v>295</v>
+      </c>
+      <c r="Y6">
+        <v>295</v>
+      </c>
+      <c r="Z6">
+        <v>295</v>
+      </c>
+      <c r="AA6">
+        <v>295</v>
+      </c>
+      <c r="AB6">
+        <v>300</v>
+      </c>
+      <c r="AC6">
+        <v>300</v>
+      </c>
+      <c r="AD6">
+        <v>300</v>
+      </c>
+      <c r="AE6">
+        <v>305</v>
+      </c>
+      <c r="AF6">
+        <v>305</v>
+      </c>
+      <c r="AG6">
+        <v>310</v>
+      </c>
+      <c r="AH6">
+        <v>310</v>
+      </c>
+      <c r="AI6">
+        <v>310</v>
+      </c>
+      <c r="AJ6">
+        <v>310</v>
+      </c>
+      <c r="AK6">
+        <v>320</v>
+      </c>
+      <c r="AL6">
+        <v>325</v>
+      </c>
+      <c r="AM6">
+        <v>315</v>
+      </c>
+      <c r="AN6">
+        <v>315</v>
+      </c>
+      <c r="AO6">
+        <v>315</v>
+      </c>
+      <c r="AP6">
+        <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>20000</v>
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>115</v>
+      </c>
+      <c r="G7">
+        <v>125</v>
+      </c>
+      <c r="H7">
+        <v>135</v>
+      </c>
+      <c r="I7">
+        <v>140</v>
+      </c>
+      <c r="J7">
+        <v>145</v>
+      </c>
+      <c r="K7">
+        <v>145</v>
+      </c>
+      <c r="L7">
+        <v>145</v>
+      </c>
+      <c r="M7">
+        <v>150</v>
+      </c>
+      <c r="N7">
+        <v>150</v>
+      </c>
+      <c r="O7">
+        <v>170</v>
+      </c>
+      <c r="P7">
+        <v>170</v>
+      </c>
+      <c r="Q7">
+        <v>175</v>
+      </c>
+      <c r="R7">
+        <v>175</v>
+      </c>
+      <c r="S7">
+        <v>175</v>
+      </c>
+      <c r="T7">
+        <v>175</v>
+      </c>
+      <c r="U7">
+        <v>175</v>
+      </c>
+      <c r="V7">
+        <v>175</v>
+      </c>
+      <c r="W7">
+        <v>180</v>
+      </c>
+      <c r="X7">
+        <v>185</v>
+      </c>
+      <c r="Y7">
+        <v>190</v>
+      </c>
+      <c r="Z7">
+        <v>190</v>
+      </c>
+      <c r="AA7">
+        <v>190</v>
+      </c>
+      <c r="AB7">
+        <v>195</v>
+      </c>
+      <c r="AC7">
+        <v>200</v>
+      </c>
+      <c r="AD7">
+        <v>205</v>
+      </c>
+      <c r="AE7">
+        <v>210</v>
+      </c>
+      <c r="AF7">
+        <v>215</v>
+      </c>
+      <c r="AG7">
+        <v>215</v>
+      </c>
+      <c r="AH7">
+        <v>220</v>
+      </c>
+      <c r="AI7">
+        <v>225</v>
+      </c>
+      <c r="AJ7">
+        <v>225</v>
+      </c>
+      <c r="AK7">
+        <v>225</v>
+      </c>
+      <c r="AL7">
+        <v>230</v>
+      </c>
+      <c r="AM7">
+        <v>250</v>
+      </c>
+      <c r="AN7">
+        <v>260</v>
+      </c>
+      <c r="AO7">
+        <v>260</v>
+      </c>
+      <c r="AP7">
+        <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>15000</v>
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>55</v>
+      </c>
+      <c r="I8">
+        <v>55</v>
+      </c>
+      <c r="J8">
+        <v>60</v>
+      </c>
+      <c r="K8">
+        <v>60</v>
+      </c>
+      <c r="L8">
+        <v>65</v>
+      </c>
+      <c r="M8">
+        <v>70</v>
+      </c>
+      <c r="N8">
+        <v>70</v>
+      </c>
+      <c r="O8">
+        <v>70</v>
+      </c>
+      <c r="P8">
+        <v>70</v>
+      </c>
+      <c r="Q8">
+        <v>70</v>
+      </c>
+      <c r="R8">
+        <v>70</v>
+      </c>
+      <c r="S8">
+        <v>70</v>
+      </c>
+      <c r="T8">
+        <v>72</v>
+      </c>
+      <c r="U8">
+        <v>72</v>
+      </c>
+      <c r="V8">
+        <v>75</v>
+      </c>
+      <c r="W8">
+        <v>80</v>
+      </c>
+      <c r="X8">
+        <v>85</v>
+      </c>
+      <c r="Y8">
+        <v>90</v>
+      </c>
+      <c r="Z8">
+        <v>95</v>
+      </c>
+      <c r="AA8">
+        <v>95</v>
+      </c>
+      <c r="AB8">
+        <v>100</v>
+      </c>
+      <c r="AC8">
+        <v>100</v>
+      </c>
+      <c r="AD8">
+        <v>105</v>
+      </c>
+      <c r="AE8">
+        <v>105</v>
+      </c>
+      <c r="AF8">
+        <v>110</v>
+      </c>
+      <c r="AG8">
+        <v>110</v>
+      </c>
+      <c r="AH8">
+        <v>115</v>
+      </c>
+      <c r="AI8">
+        <v>120</v>
+      </c>
+      <c r="AJ8">
+        <v>125</v>
+      </c>
+      <c r="AK8">
+        <v>125</v>
+      </c>
+      <c r="AL8">
+        <v>130</v>
+      </c>
+      <c r="AM8">
+        <v>140</v>
+      </c>
+      <c r="AN8">
+        <v>150</v>
+      </c>
+      <c r="AO8">
+        <v>160</v>
+      </c>
+      <c r="AP8">
+        <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>12500</v>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>35</v>
+      </c>
+      <c r="N9">
+        <v>40</v>
+      </c>
+      <c r="O9">
+        <v>40</v>
+      </c>
+      <c r="P9">
+        <v>45</v>
+      </c>
+      <c r="Q9">
+        <v>45</v>
+      </c>
+      <c r="R9">
+        <v>45</v>
+      </c>
+      <c r="S9">
+        <v>45</v>
+      </c>
+      <c r="T9">
+        <v>49</v>
+      </c>
+      <c r="U9">
+        <v>50</v>
+      </c>
+      <c r="V9">
+        <v>50</v>
+      </c>
+      <c r="W9">
+        <v>55</v>
+      </c>
+      <c r="X9">
+        <v>55</v>
+      </c>
+      <c r="Y9">
+        <v>60</v>
+      </c>
+      <c r="Z9">
+        <v>65</v>
+      </c>
+      <c r="AA9">
+        <v>70</v>
+      </c>
+      <c r="AB9">
+        <v>75</v>
+      </c>
+      <c r="AC9">
+        <v>80</v>
+      </c>
+      <c r="AD9">
+        <v>80</v>
+      </c>
+      <c r="AE9">
+        <v>85</v>
+      </c>
+      <c r="AF9">
+        <v>85</v>
+      </c>
+      <c r="AG9">
+        <v>90</v>
+      </c>
+      <c r="AH9">
+        <v>90</v>
+      </c>
+      <c r="AI9">
+        <v>95</v>
+      </c>
+      <c r="AJ9">
+        <v>105</v>
+      </c>
+      <c r="AK9">
+        <v>105</v>
+      </c>
+      <c r="AL9">
+        <v>105</v>
+      </c>
+      <c r="AM9">
+        <v>110</v>
+      </c>
+      <c r="AN9">
+        <v>115</v>
+      </c>
+      <c r="AO9">
+        <v>125</v>
+      </c>
+      <c r="AP9">
+        <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1000</v>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>15</v>
+      </c>
+      <c r="Q10">
+        <v>15</v>
+      </c>
+      <c r="R10">
+        <v>20</v>
+      </c>
+      <c r="S10">
+        <v>20</v>
+      </c>
+      <c r="T10">
+        <v>25</v>
+      </c>
+      <c r="U10">
+        <v>25</v>
+      </c>
+      <c r="V10">
+        <v>25</v>
+      </c>
+      <c r="W10">
+        <v>25</v>
+      </c>
+      <c r="X10">
+        <v>25</v>
+      </c>
+      <c r="Y10">
+        <v>25</v>
+      </c>
+      <c r="Z10">
+        <v>30</v>
+      </c>
+      <c r="AA10">
+        <v>35</v>
+      </c>
+      <c r="AB10">
+        <v>35</v>
+      </c>
+      <c r="AC10">
+        <v>40</v>
+      </c>
+      <c r="AD10">
+        <v>45</v>
+      </c>
+      <c r="AE10">
+        <v>50</v>
+      </c>
+      <c r="AF10">
+        <v>55</v>
+      </c>
+      <c r="AG10">
+        <v>60</v>
+      </c>
+      <c r="AH10">
+        <v>65</v>
+      </c>
+      <c r="AI10">
+        <v>65</v>
+      </c>
+      <c r="AJ10">
+        <v>70</v>
+      </c>
+      <c r="AK10">
+        <v>70</v>
+      </c>
+      <c r="AL10">
+        <v>75</v>
+      </c>
+      <c r="AM10">
+        <v>75</v>
+      </c>
+      <c r="AN10">
+        <v>75</v>
+      </c>
+      <c r="AO10">
+        <v>75</v>
+      </c>
+      <c r="AP10">
+        <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>8</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <v>12</v>
+      </c>
+      <c r="W11">
+        <v>12</v>
+      </c>
+      <c r="X11">
+        <v>12</v>
+      </c>
+      <c r="Y11">
+        <v>12</v>
+      </c>
+      <c r="Z11">
+        <v>12</v>
+      </c>
+      <c r="AA11">
+        <v>15</v>
+      </c>
+      <c r="AB11">
+        <v>15</v>
+      </c>
+      <c r="AC11">
+        <v>20</v>
+      </c>
+      <c r="AD11">
+        <v>20</v>
+      </c>
+      <c r="AE11">
+        <v>25</v>
+      </c>
+      <c r="AF11">
+        <v>30</v>
+      </c>
+      <c r="AG11">
+        <v>30</v>
+      </c>
+      <c r="AH11">
+        <v>30</v>
+      </c>
+      <c r="AI11">
+        <v>30</v>
+      </c>
+      <c r="AJ11">
+        <v>30</v>
+      </c>
+      <c r="AK11">
+        <v>35</v>
+      </c>
+      <c r="AL11">
+        <v>40</v>
+      </c>
+      <c r="AM11">
+        <v>40</v>
+      </c>
+      <c r="AN11">
+        <v>40</v>
+      </c>
+      <c r="AO11">
+        <v>40</v>
+      </c>
+      <c r="AP11">
+        <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AA12">
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <v>3</v>
+      </c>
+      <c r="AC12">
+        <v>3</v>
+      </c>
+      <c r="AD12">
+        <v>6</v>
+      </c>
+      <c r="AE12">
+        <v>6</v>
+      </c>
+      <c r="AF12">
+        <v>6</v>
+      </c>
+      <c r="AG12">
+        <v>6</v>
+      </c>
+      <c r="AH12">
+        <v>6</v>
+      </c>
+      <c r="AI12">
+        <v>6</v>
+      </c>
+      <c r="AJ12">
+        <v>6</v>
+      </c>
+      <c r="AK12">
+        <v>10</v>
+      </c>
+      <c r="AL12">
+        <v>10</v>
+      </c>
+      <c r="AM12">
+        <v>10</v>
+      </c>
+      <c r="AN12">
+        <v>10</v>
+      </c>
+      <c r="AO12">
+        <v>15</v>
+      </c>
+      <c r="AP12">
+        <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
+      </c>
+      <c r="AC13">
+        <v>2</v>
+      </c>
+      <c r="AD13">
+        <v>4</v>
+      </c>
+      <c r="AE13">
+        <v>4</v>
+      </c>
+      <c r="AF13">
+        <v>4</v>
+      </c>
+      <c r="AG13">
+        <v>4</v>
+      </c>
+      <c r="AH13">
+        <v>4</v>
+      </c>
+      <c r="AI13">
+        <v>4</v>
+      </c>
+      <c r="AJ13">
+        <v>4</v>
+      </c>
+      <c r="AK13">
+        <v>5</v>
+      </c>
+      <c r="AL13">
+        <v>5</v>
+      </c>
+      <c r="AM13">
+        <v>5</v>
+      </c>
+      <c r="AN13">
+        <v>5</v>
+      </c>
+      <c r="AO13">
+        <v>5</v>
+      </c>
+      <c r="AP13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <f t="shared" ref="B16:V16" si="0">SUM(B3:B14)</f>
+        <v>1000</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="V16">
+        <f>SUM(V3:V14)</f>
+        <v>1000</v>
+      </c>
+      <c r="W16">
+        <f t="shared" ref="W16:AP16" si="1">SUM(W3:W14)</f>
+        <v>1000</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>-20</v>
+      </c>
+      <c r="C20">
+        <v>-19</v>
+      </c>
+      <c r="D20">
+        <v>-18</v>
+      </c>
+      <c r="E20">
+        <v>-17</v>
+      </c>
+      <c r="F20">
+        <v>-16</v>
+      </c>
+      <c r="G20">
+        <v>-15</v>
+      </c>
+      <c r="H20">
+        <v>-14</v>
+      </c>
+      <c r="I20">
+        <v>-13</v>
+      </c>
+      <c r="J20">
+        <v>-12</v>
+      </c>
+      <c r="K20">
+        <v>-11</v>
+      </c>
+      <c r="L20">
+        <v>-10</v>
+      </c>
+      <c r="M20">
+        <v>-9</v>
+      </c>
+      <c r="N20">
+        <v>-8</v>
+      </c>
+      <c r="O20">
+        <v>-7</v>
+      </c>
+      <c r="P20">
+        <v>-6</v>
+      </c>
+      <c r="Q20">
+        <v>-5</v>
+      </c>
+      <c r="R20">
+        <v>-4</v>
+      </c>
+      <c r="S20">
+        <v>-3</v>
+      </c>
+      <c r="T20">
+        <v>-2</v>
+      </c>
+      <c r="U20">
+        <v>-1</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <v>3</v>
+      </c>
+      <c r="Z20">
+        <v>4</v>
+      </c>
+      <c r="AA20">
+        <v>5</v>
+      </c>
+      <c r="AB20">
+        <v>6</v>
+      </c>
+      <c r="AC20">
+        <v>7</v>
+      </c>
+      <c r="AD20">
+        <v>8</v>
+      </c>
+      <c r="AE20">
+        <v>9</v>
+      </c>
+      <c r="AF20">
+        <v>10</v>
+      </c>
+      <c r="AG20">
+        <v>11</v>
+      </c>
+      <c r="AH20">
+        <v>12</v>
+      </c>
+      <c r="AI20">
+        <v>13</v>
+      </c>
+      <c r="AJ20">
+        <v>14</v>
+      </c>
+      <c r="AK20">
+        <v>15</v>
+      </c>
+      <c r="AL20">
+        <v>16</v>
+      </c>
+      <c r="AM20">
+        <v>17</v>
+      </c>
+      <c r="AN20">
+        <v>18</v>
+      </c>
+      <c r="AO20">
+        <v>19</v>
+      </c>
+      <c r="AP20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:U31" si="2">B3*$A3</f>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f>V3*$A3</f>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f t="shared" ref="W21:AP21" si="3">W3*$A3</f>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="V22">
+        <f t="shared" ref="V22:V31" si="4">V4*$A4</f>
+        <v>100</v>
+      </c>
+      <c r="W22">
+        <f t="shared" ref="W22:AP22" si="5">W4*$A4</f>
+        <v>95</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
+      <c r="AK22">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>440</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>440</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>440</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>460</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>460</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>460</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>470</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>470</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>470</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>470</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="W23">
+        <f t="shared" ref="W23:AP23" si="6">W5*$A5</f>
+        <v>430</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="6"/>
+        <v>420</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="6"/>
+        <v>410</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="6"/>
+        <v>370</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="6"/>
+        <v>350</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="6"/>
+        <v>330</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="6"/>
+        <v>310</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="6"/>
+        <v>290</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="6"/>
+        <v>270</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="6"/>
+        <v>230</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>645</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>675</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>705</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>735</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>780</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>795</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>825</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>840</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>855</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>855</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>855</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>855</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>855</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>855</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>855</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>855</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>855</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="4"/>
+        <v>855</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:AP24" si="7">W6*$A6</f>
+        <v>870</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="7"/>
+        <v>885</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="7"/>
+        <v>885</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="7"/>
+        <v>885</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="7"/>
+        <v>885</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="7"/>
+        <v>900</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="7"/>
+        <v>900</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="7"/>
+        <v>900</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="7"/>
+        <v>915</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="7"/>
+        <v>915</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="7"/>
+        <v>930</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="7"/>
+        <v>930</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="7"/>
+        <v>930</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="7"/>
+        <v>930</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="7"/>
+        <v>960</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="7"/>
+        <v>975</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="7"/>
+        <v>945</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="7"/>
+        <v>945</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="7"/>
+        <v>945</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="7"/>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>460</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>560</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>580</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>580</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>580</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>680</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>680</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="W25">
+        <f t="shared" ref="W25:AP25" si="8">W7*$A7</f>
+        <v>720</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="8"/>
+        <v>740</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="8"/>
+        <v>760</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="8"/>
+        <v>760</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="8"/>
+        <v>760</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="8"/>
+        <v>780</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="8"/>
+        <v>800</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="8"/>
+        <v>820</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="8"/>
+        <v>840</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="8"/>
+        <v>860</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="8"/>
+        <v>860</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="8"/>
+        <v>880</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="8"/>
+        <v>900</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="8"/>
+        <v>900</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="8"/>
+        <v>900</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="8"/>
+        <v>920</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="8"/>
+        <v>1040</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="8"/>
+        <v>1040</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="8"/>
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="4"/>
+        <v>375</v>
+      </c>
+      <c r="W26">
+        <f t="shared" ref="W26:AP26" si="9">W8*$A8</f>
+        <v>400</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="9"/>
+        <v>425</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="9"/>
+        <v>450</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="9"/>
+        <v>475</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="9"/>
+        <v>475</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="9"/>
+        <v>500</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="9"/>
+        <v>500</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="9"/>
+        <v>525</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="9"/>
+        <v>525</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="9"/>
+        <v>550</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="9"/>
+        <v>550</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="9"/>
+        <v>575</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="9"/>
+        <v>600</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="9"/>
+        <v>625</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="9"/>
+        <v>625</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="9"/>
+        <v>650</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="9"/>
+        <v>700</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="9"/>
+        <v>750</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="9"/>
+        <v>800</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="9"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="2"/>
+        <v>294</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="W27">
+        <f t="shared" ref="W27:AP27" si="10">W9*$A9</f>
+        <v>330</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="10"/>
+        <v>330</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="10"/>
+        <v>360</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="10"/>
+        <v>390</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="10"/>
+        <v>420</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="10"/>
+        <v>480</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="10"/>
+        <v>480</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="10"/>
+        <v>510</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="10"/>
+        <v>510</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="10"/>
+        <v>540</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="10"/>
+        <v>540</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="10"/>
+        <v>570</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="10"/>
+        <v>630</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="10"/>
+        <v>630</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="10"/>
+        <v>630</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="10"/>
+        <v>660</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="10"/>
+        <v>690</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" si="10"/>
+        <v>750</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="10"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="W28">
+        <f t="shared" ref="W28:AP28" si="11">W10*$A10</f>
+        <v>175</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="11"/>
+        <v>175</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="11"/>
+        <v>175</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="11"/>
+        <v>210</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="11"/>
+        <v>245</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="11"/>
+        <v>245</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="11"/>
+        <v>280</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="11"/>
+        <v>315</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="11"/>
+        <v>385</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="11"/>
+        <v>420</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="11"/>
+        <v>455</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="11"/>
+        <v>455</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="11"/>
+        <v>490</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="11"/>
+        <v>490</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="11"/>
+        <v>525</v>
+      </c>
+      <c r="AM28">
+        <f t="shared" si="11"/>
+        <v>525</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="11"/>
+        <v>525</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="11"/>
+        <v>525</v>
+      </c>
+      <c r="AP28">
+        <f t="shared" si="11"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="W29">
+        <f t="shared" ref="W29:AP29" si="12">W11*$A11</f>
+        <v>96</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="12"/>
+        <v>96</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="12"/>
+        <v>96</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="12"/>
+        <v>96</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="12"/>
+        <v>160</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="12"/>
+        <v>160</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="12"/>
+        <v>240</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="12"/>
+        <v>240</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="12"/>
+        <v>240</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="12"/>
+        <v>240</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="12"/>
+        <v>240</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="12"/>
+        <v>280</v>
+      </c>
+      <c r="AL29">
+        <f t="shared" si="12"/>
+        <v>320</v>
+      </c>
+      <c r="AM29">
+        <f t="shared" si="12"/>
+        <v>320</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="12"/>
+        <v>320</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="12"/>
+        <v>320</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="12"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="W30">
+        <f t="shared" ref="W30:AP30" si="13">W12*$A12</f>
+        <v>18</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="13"/>
+        <v>54</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="13"/>
+        <v>54</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="13"/>
+        <v>54</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="13"/>
+        <v>54</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="13"/>
+        <v>54</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="13"/>
+        <v>54</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="13"/>
+        <v>54</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="AM30">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="13"/>
+        <v>135</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="13"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="W31">
+        <f t="shared" ref="W31:AP31" si="14">W13*$A13</f>
+        <v>10</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="AL31">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="AM31">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B35" s="1">
+        <f t="shared" ref="B35:U35" si="15">SUM(B21:B34)/1000</f>
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="15"/>
+        <v>1.635</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="15"/>
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="15"/>
+        <v>1.845</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="15"/>
+        <v>1.96</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="15"/>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="15"/>
+        <v>2.19</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="15"/>
+        <v>2.27</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="15"/>
+        <v>2.36</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="15"/>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="15"/>
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="15"/>
+        <v>2.625</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="15"/>
+        <v>2.69</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="15"/>
+        <v>2.75</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="15"/>
+        <v>2.8149999999999999</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="15"/>
+        <v>2.851</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="15"/>
+        <v>2.9020000000000001</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="15"/>
+        <v>2.927</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="15"/>
+        <v>3.0070000000000001</v>
+      </c>
+      <c r="U35" s="1">
+        <f t="shared" si="15"/>
+        <v>3.048</v>
+      </c>
+      <c r="V35" s="1">
+        <f>SUM(V21:V34)/1000</f>
+        <v>3.0790000000000002</v>
+      </c>
+      <c r="W35" s="1">
+        <f>SUM(W21:W34)/1000</f>
+        <v>3.1440000000000001</v>
+      </c>
+      <c r="X35" s="1">
+        <f t="shared" ref="X35:AP35" si="16">SUM(X21:X34)/1000</f>
+        <v>3.1890000000000001</v>
+      </c>
+      <c r="Y35" s="1">
+        <f t="shared" si="16"/>
+        <v>3.2490000000000001</v>
+      </c>
+      <c r="Z35" s="1">
+        <f t="shared" si="16"/>
+        <v>3.3239999999999998</v>
+      </c>
+      <c r="AA35" s="1">
+        <f t="shared" si="16"/>
+        <v>3.4169999999999998</v>
+      </c>
+      <c r="AB35" s="1">
+        <f t="shared" si="16"/>
+        <v>3.4820000000000002</v>
+      </c>
+      <c r="AC35" s="1">
+        <f t="shared" si="16"/>
+        <v>3.5819999999999999</v>
+      </c>
+      <c r="AD35" s="1">
+        <f t="shared" si="16"/>
+        <v>3.6840000000000002</v>
+      </c>
+      <c r="AE35" s="1">
+        <f t="shared" si="16"/>
+        <v>3.794</v>
+      </c>
+      <c r="AF35" s="1">
+        <f t="shared" si="16"/>
+        <v>3.8889999999999998</v>
+      </c>
+      <c r="AG35" s="1">
+        <f t="shared" si="16"/>
+        <v>3.944</v>
+      </c>
+      <c r="AH35" s="1">
+        <f t="shared" si="16"/>
+        <v>3.9990000000000001</v>
+      </c>
+      <c r="AI35" s="1">
+        <f t="shared" si="16"/>
+        <v>4.0490000000000004</v>
+      </c>
+      <c r="AJ35" s="1">
+        <f t="shared" si="16"/>
+        <v>4.1340000000000003</v>
+      </c>
+      <c r="AK35" s="1">
+        <f t="shared" si="16"/>
+        <v>4.2149999999999999</v>
+      </c>
+      <c r="AL35" s="1">
+        <f t="shared" si="16"/>
+        <v>4.3049999999999997</v>
+      </c>
+      <c r="AM35" s="1">
+        <f t="shared" si="16"/>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="AN35" s="1">
+        <f t="shared" si="16"/>
+        <v>4.4649999999999999</v>
+      </c>
+      <c r="AO35" s="1">
+        <f t="shared" si="16"/>
+        <v>4.5750000000000002</v>
+      </c>
+      <c r="AP35" s="1">
+        <f t="shared" si="16"/>
+        <v>4.6150000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>-20</v>
+      </c>
+      <c r="C37">
+        <v>-19</v>
+      </c>
+      <c r="D37">
+        <v>-18</v>
+      </c>
+      <c r="E37">
+        <v>-17</v>
+      </c>
+      <c r="F37">
+        <v>-16</v>
+      </c>
+      <c r="G37">
+        <v>-15</v>
+      </c>
+      <c r="H37">
+        <v>-14</v>
+      </c>
+      <c r="I37">
+        <v>-13</v>
+      </c>
+      <c r="J37">
+        <v>-12</v>
+      </c>
+      <c r="K37">
+        <v>-11</v>
+      </c>
+      <c r="L37">
+        <v>-10</v>
+      </c>
+      <c r="M37">
+        <v>-9</v>
+      </c>
+      <c r="N37">
+        <v>-8</v>
+      </c>
+      <c r="O37">
+        <v>-7</v>
+      </c>
+      <c r="P37">
+        <v>-6</v>
+      </c>
+      <c r="Q37">
+        <v>-5</v>
+      </c>
+      <c r="R37">
+        <v>-4</v>
+      </c>
+      <c r="S37">
+        <v>-3</v>
+      </c>
+      <c r="T37">
+        <v>-2</v>
+      </c>
+      <c r="U37">
+        <v>-1</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>2</v>
+      </c>
+      <c r="Y37">
+        <v>3</v>
+      </c>
+      <c r="Z37">
+        <v>4</v>
+      </c>
+      <c r="AA37">
+        <v>5</v>
+      </c>
+      <c r="AB37">
+        <v>6</v>
+      </c>
+      <c r="AC37">
+        <v>7</v>
+      </c>
+      <c r="AD37">
+        <v>8</v>
+      </c>
+      <c r="AE37">
+        <v>9</v>
+      </c>
+      <c r="AF37">
+        <v>10</v>
+      </c>
+      <c r="AG37">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="AH37">
+        <v>12</v>
+      </c>
+      <c r="AI37">
+        <v>13</v>
+      </c>
+      <c r="AJ37">
+        <v>14</v>
+      </c>
+      <c r="AK37">
+        <v>15</v>
+      </c>
+      <c r="AL37">
+        <v>16</v>
+      </c>
+      <c r="AM37">
+        <v>17</v>
+      </c>
+      <c r="AN37">
+        <v>18</v>
+      </c>
+      <c r="AO37">
+        <v>19</v>
+      </c>
+      <c r="AP37">
         <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/math_stuff.xlsx
+++ b/docs/math_stuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\python_learning\team_project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D199AB3-C081-42C2-8412-E5567C5E8867}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969B869B-2BA4-4F1B-A20F-E41A4F00F49C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="6910" activeTab="5" xr2:uid="{90D94824-A6D7-4CA6-B1FC-4C1AA4DBBDD0}"/>
   </bookViews>
@@ -24394,7 +24394,7 @@
   <dimension ref="A1:EE2002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="DH1" workbookViewId="0">
-      <selection activeCell="DX1" sqref="DX1:DX21"/>
+      <selection activeCell="EA1" sqref="EA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24494,8 +24494,8 @@
         <v>0</v>
       </c>
       <c r="ED1">
-        <f>EB1/$EB$23*100</f>
-        <v>7.054176072234764</v>
+        <f>EB1/$EB$14*100</f>
+        <v>2.781641168289291</v>
       </c>
       <c r="EE1">
         <f>EC1*ED1</f>
@@ -24652,29 +24652,29 @@
       </c>
       <c r="DX2" t="str">
         <f t="shared" ref="DX2:DX21" si="0">_xlfn.CONCAT("[",EC2,",",EA2,",",DZ2,"],")</f>
-        <v>[1,500,1250],</v>
+        <v>[1,500,1500],</v>
       </c>
       <c r="DZ2">
         <f>EA2+EB2</f>
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="EA2">
         <f>DZ1</f>
         <v>500</v>
       </c>
       <c r="EB2">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="EC2">
         <v>1</v>
       </c>
       <c r="ED2">
-        <f t="shared" ref="ED2:ED21" si="1">EB2/$EB$23*100</f>
-        <v>10.581264108352144</v>
+        <f t="shared" ref="ED2:ED11" si="1">EB2/$EB$14*100</f>
+        <v>5.563282336578582</v>
       </c>
       <c r="EE2">
         <f t="shared" ref="EE2:EE21" si="2">EC2*ED2</f>
-        <v>10.581264108352144</v>
+        <v>5.563282336578582</v>
       </c>
     </row>
     <row r="3" spans="1:135" x14ac:dyDescent="0.35">
@@ -24967,29 +24967,29 @@
       </c>
       <c r="DX3" t="str">
         <f t="shared" si="0"/>
-        <v>[2,1250,2250],</v>
+        <v>[2,1500,4000],</v>
       </c>
       <c r="DZ3">
         <f t="shared" ref="DZ3:DZ21" si="3">EA3+EB3</f>
-        <v>2250</v>
+        <v>4000</v>
       </c>
       <c r="EA3">
         <f t="shared" ref="EA3:EA21" si="4">DZ2</f>
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="EB3">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="EC3">
         <v>2</v>
       </c>
       <c r="ED3">
         <f t="shared" si="1"/>
-        <v>14.108352144469528</v>
+        <v>13.908205841446453</v>
       </c>
       <c r="EE3">
         <f t="shared" si="2"/>
-        <v>28.216704288939056</v>
+        <v>27.816411682892905</v>
       </c>
     </row>
     <row r="4" spans="1:135" x14ac:dyDescent="0.35">
@@ -25351,29 +25351,29 @@
       </c>
       <c r="DX4" t="str">
         <f t="shared" si="0"/>
-        <v>[3,2250,3250],</v>
+        <v>[3,4000,9000],</v>
       </c>
       <c r="DZ4">
         <f t="shared" si="3"/>
-        <v>3250</v>
+        <v>9000</v>
       </c>
       <c r="EA4">
         <f t="shared" si="4"/>
-        <v>2250</v>
+        <v>4000</v>
       </c>
       <c r="EB4">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="EC4">
         <v>3</v>
       </c>
       <c r="ED4">
         <f t="shared" si="1"/>
-        <v>14.108352144469528</v>
+        <v>27.816411682892905</v>
       </c>
       <c r="EE4">
         <f t="shared" si="2"/>
-        <v>42.325056433408584</v>
+        <v>83.449235048678716</v>
       </c>
     </row>
     <row r="5" spans="1:135" x14ac:dyDescent="0.35">
@@ -25781,29 +25781,29 @@
       </c>
       <c r="DX5" t="str">
         <f t="shared" si="0"/>
-        <v>[4,3250,4250],</v>
+        <v>[4,9000,14000],</v>
       </c>
       <c r="DZ5">
         <f t="shared" si="3"/>
-        <v>4250</v>
+        <v>14000</v>
       </c>
       <c r="EA5">
         <f t="shared" si="4"/>
-        <v>3250</v>
+        <v>9000</v>
       </c>
       <c r="EB5">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="EC5">
         <v>4</v>
       </c>
       <c r="ED5">
         <f t="shared" si="1"/>
-        <v>14.108352144469528</v>
+        <v>27.816411682892905</v>
       </c>
       <c r="EE5">
         <f t="shared" si="2"/>
-        <v>56.433408577878112</v>
+        <v>111.26564673157162</v>
       </c>
     </row>
     <row r="6" spans="1:135" x14ac:dyDescent="0.35">
@@ -26234,29 +26234,29 @@
       </c>
       <c r="DX6" t="str">
         <f t="shared" si="0"/>
-        <v>[5,4250,5250],</v>
+        <v>[5,14000,16500],</v>
       </c>
       <c r="DZ6">
         <f t="shared" si="3"/>
-        <v>5250</v>
+        <v>16500</v>
       </c>
       <c r="EA6">
         <f t="shared" si="4"/>
-        <v>4250</v>
+        <v>14000</v>
       </c>
       <c r="EB6">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="EC6">
         <v>5</v>
       </c>
       <c r="ED6">
         <f t="shared" si="1"/>
-        <v>14.108352144469528</v>
+        <v>13.908205841446453</v>
       </c>
       <c r="EE6">
         <f t="shared" si="2"/>
-        <v>70.541760722347647</v>
+        <v>69.54102920723227</v>
       </c>
     </row>
     <row r="7" spans="1:135" x14ac:dyDescent="0.35">
@@ -26687,29 +26687,29 @@
       </c>
       <c r="DX7" t="str">
         <f t="shared" si="0"/>
-        <v>[6,5250,6000],</v>
+        <v>[6,16500,17500],</v>
       </c>
       <c r="DZ7">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>17500</v>
       </c>
       <c r="EA7">
         <f t="shared" si="4"/>
-        <v>5250</v>
+        <v>16500</v>
       </c>
       <c r="EB7">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="EC7">
         <v>6</v>
       </c>
       <c r="ED7">
         <f t="shared" si="1"/>
-        <v>10.581264108352144</v>
+        <v>5.563282336578582</v>
       </c>
       <c r="EE7">
         <f t="shared" si="2"/>
-        <v>63.487584650112865</v>
+        <v>33.379694019471494</v>
       </c>
     </row>
     <row r="8" spans="1:135" x14ac:dyDescent="0.35">
@@ -27140,29 +27140,29 @@
       </c>
       <c r="DX8" t="str">
         <f t="shared" si="0"/>
-        <v>[7,6000,6500],</v>
+        <v>[7,17500,17750],</v>
       </c>
       <c r="DZ8">
         <f t="shared" si="3"/>
-        <v>6500</v>
+        <v>17750</v>
       </c>
       <c r="EA8">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>17500</v>
       </c>
       <c r="EB8">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="EC8">
         <v>7</v>
       </c>
       <c r="ED8">
         <f t="shared" si="1"/>
-        <v>7.054176072234764</v>
+        <v>1.3908205841446455</v>
       </c>
       <c r="EE8">
         <f t="shared" si="2"/>
-        <v>49.379232505643344</v>
+        <v>9.7357440890125186</v>
       </c>
     </row>
     <row r="9" spans="1:135" x14ac:dyDescent="0.35">
@@ -27593,29 +27593,29 @@
       </c>
       <c r="DX9" t="str">
         <f t="shared" si="0"/>
-        <v>[8,6500,6750],</v>
+        <v>[8,17750,17875],</v>
       </c>
       <c r="DZ9">
         <f t="shared" si="3"/>
-        <v>6750</v>
+        <v>17875</v>
       </c>
       <c r="EA9">
         <f t="shared" si="4"/>
-        <v>6500</v>
+        <v>17750</v>
       </c>
       <c r="EB9">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="EC9">
         <v>8</v>
       </c>
       <c r="ED9">
         <f t="shared" si="1"/>
-        <v>3.527088036117382</v>
+        <v>0.69541029207232274</v>
       </c>
       <c r="EE9">
         <f t="shared" si="2"/>
-        <v>28.216704288939056</v>
+        <v>5.563282336578582</v>
       </c>
     </row>
     <row r="10" spans="1:135" x14ac:dyDescent="0.35">
@@ -28046,29 +28046,29 @@
       </c>
       <c r="DX10" t="str">
         <f t="shared" si="0"/>
-        <v>[9,6750,6875],</v>
+        <v>[9,17875,17950],</v>
       </c>
       <c r="DZ10">
         <f t="shared" si="3"/>
-        <v>6875</v>
+        <v>17950</v>
       </c>
       <c r="EA10">
         <f t="shared" si="4"/>
-        <v>6750</v>
+        <v>17875</v>
       </c>
       <c r="EB10">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="EC10">
         <v>9</v>
       </c>
       <c r="ED10">
         <f t="shared" si="1"/>
-        <v>1.763544018058691</v>
+        <v>0.41724617524339358</v>
       </c>
       <c r="EE10">
         <f t="shared" si="2"/>
-        <v>15.87189616252822</v>
+        <v>3.7552155771905422</v>
       </c>
     </row>
     <row r="11" spans="1:135" x14ac:dyDescent="0.35">
@@ -28499,29 +28499,29 @@
       </c>
       <c r="DX11" t="str">
         <f t="shared" si="0"/>
-        <v>[10,6875,6950],</v>
+        <v>[10,17950,17975],</v>
       </c>
       <c r="DZ11">
         <f t="shared" si="3"/>
-        <v>6950</v>
+        <v>17975</v>
       </c>
       <c r="EA11">
         <f t="shared" si="4"/>
-        <v>6875</v>
+        <v>17950</v>
       </c>
       <c r="EB11">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="EC11">
         <v>10</v>
       </c>
       <c r="ED11">
         <f t="shared" si="1"/>
-        <v>1.0581264108352144</v>
+        <v>0.13908205841446453</v>
       </c>
       <c r="EE11">
         <f t="shared" si="2"/>
-        <v>10.581264108352144</v>
+        <v>1.3908205841446453</v>
       </c>
     </row>
     <row r="12" spans="1:135" x14ac:dyDescent="0.35">
@@ -28950,32 +28950,6 @@
         <f t="shared" si="95"/>
         <v>950</v>
       </c>
-      <c r="DX12" t="str">
-        <f t="shared" si="0"/>
-        <v>[11,6950,7000],</v>
-      </c>
-      <c r="DZ12">
-        <f t="shared" si="3"/>
-        <v>7000</v>
-      </c>
-      <c r="EA12">
-        <f t="shared" si="4"/>
-        <v>6950</v>
-      </c>
-      <c r="EB12">
-        <v>50</v>
-      </c>
-      <c r="EC12">
-        <v>11</v>
-      </c>
-      <c r="ED12">
-        <f t="shared" si="1"/>
-        <v>0.70541760722347635</v>
-      </c>
-      <c r="EE12">
-        <f t="shared" si="2"/>
-        <v>7.7595936794582396</v>
-      </c>
     </row>
     <row r="13" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -29403,32 +29377,6 @@
         <f t="shared" si="95"/>
         <v>980</v>
       </c>
-      <c r="DX13" t="str">
-        <f t="shared" si="0"/>
-        <v>[12,7000,7025],</v>
-      </c>
-      <c r="DZ13">
-        <f t="shared" si="3"/>
-        <v>7025</v>
-      </c>
-      <c r="EA13">
-        <f t="shared" si="4"/>
-        <v>7000</v>
-      </c>
-      <c r="EB13">
-        <v>25</v>
-      </c>
-      <c r="EC13">
-        <v>12</v>
-      </c>
-      <c r="ED13">
-        <f t="shared" si="1"/>
-        <v>0.35270880361173818</v>
-      </c>
-      <c r="EE13">
-        <f t="shared" si="2"/>
-        <v>4.2325056433408577</v>
-      </c>
     </row>
     <row r="14" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -29856,31 +29804,9 @@
         <f t="shared" si="95"/>
         <v>995</v>
       </c>
-      <c r="DX14" t="str">
-        <f t="shared" si="0"/>
-        <v>[13,7025,7045],</v>
-      </c>
-      <c r="DZ14">
-        <f t="shared" si="3"/>
-        <v>7045</v>
-      </c>
-      <c r="EA14">
-        <f t="shared" si="4"/>
-        <v>7025</v>
-      </c>
       <c r="EB14">
-        <v>20</v>
-      </c>
-      <c r="EC14">
-        <v>13</v>
-      </c>
-      <c r="ED14">
-        <f t="shared" si="1"/>
-        <v>0.28216704288939054</v>
-      </c>
-      <c r="EE14">
-        <f t="shared" si="2"/>
-        <v>3.668171557562077</v>
+        <f>SUM(EB1:EB13)</f>
+        <v>17975</v>
       </c>
     </row>
     <row r="15" spans="1:135" x14ac:dyDescent="0.35">
@@ -30309,32 +30235,6 @@
         <f t="shared" si="95"/>
         <v>1000</v>
       </c>
-      <c r="DX15" t="str">
-        <f t="shared" si="0"/>
-        <v>[14,7045,7060],</v>
-      </c>
-      <c r="DZ15">
-        <f t="shared" si="3"/>
-        <v>7060</v>
-      </c>
-      <c r="EA15">
-        <f t="shared" si="4"/>
-        <v>7045</v>
-      </c>
-      <c r="EB15">
-        <v>15</v>
-      </c>
-      <c r="EC15">
-        <v>14</v>
-      </c>
-      <c r="ED15">
-        <f t="shared" si="1"/>
-        <v>0.21162528216704291</v>
-      </c>
-      <c r="EE15">
-        <f t="shared" si="2"/>
-        <v>2.9627539503386009</v>
-      </c>
     </row>
     <row r="16" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -30762,34 +30662,8 @@
         <f t="shared" si="95"/>
         <v>1000</v>
       </c>
-      <c r="DX16" t="str">
-        <f t="shared" si="0"/>
-        <v>[15,7060,7070],</v>
-      </c>
-      <c r="DZ16">
-        <f t="shared" si="3"/>
-        <v>7070</v>
-      </c>
-      <c r="EA16">
-        <f t="shared" si="4"/>
-        <v>7060</v>
-      </c>
-      <c r="EB16">
-        <v>10</v>
-      </c>
-      <c r="EC16">
-        <v>15</v>
-      </c>
-      <c r="ED16">
-        <f t="shared" si="1"/>
-        <v>0.14108352144469527</v>
-      </c>
-      <c r="EE16">
-        <f t="shared" si="2"/>
-        <v>2.1162528216704288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:135" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:124" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1</v>
       </c>
@@ -31215,34 +31089,8 @@
         <f t="shared" si="95"/>
         <v>1000</v>
       </c>
-      <c r="DX17" t="str">
-        <f t="shared" si="0"/>
-        <v>[16,7070,7077],</v>
-      </c>
-      <c r="DZ17">
-        <f t="shared" si="3"/>
-        <v>7077</v>
-      </c>
-      <c r="EA17">
-        <f t="shared" si="4"/>
-        <v>7070</v>
-      </c>
-      <c r="EB17">
-        <v>7</v>
-      </c>
-      <c r="EC17">
-        <v>16</v>
-      </c>
-      <c r="ED17">
-        <f t="shared" si="1"/>
-        <v>9.8758465011286684E-2</v>
-      </c>
-      <c r="EE17">
-        <f t="shared" si="2"/>
-        <v>1.5801354401805869</v>
-      </c>
-    </row>
-    <row r="18" spans="1:135" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:124" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
@@ -31668,34 +31516,8 @@
         <f t="shared" si="95"/>
         <v>1000</v>
       </c>
-      <c r="DX18" t="str">
-        <f t="shared" si="0"/>
-        <v>[17,7077,7082],</v>
-      </c>
-      <c r="DZ18">
-        <f t="shared" si="3"/>
-        <v>7082</v>
-      </c>
-      <c r="EA18">
-        <f t="shared" si="4"/>
-        <v>7077</v>
-      </c>
-      <c r="EB18">
-        <v>5</v>
-      </c>
-      <c r="EC18">
-        <v>17</v>
-      </c>
-      <c r="ED18">
-        <f t="shared" si="1"/>
-        <v>7.0541760722347635E-2</v>
-      </c>
-      <c r="EE18">
-        <f t="shared" si="2"/>
-        <v>1.1992099322799099</v>
-      </c>
-    </row>
-    <row r="19" spans="1:135" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:124" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0</v>
       </c>
@@ -32121,34 +31943,8 @@
         <f t="shared" si="95"/>
         <v>1000</v>
       </c>
-      <c r="DX19" t="str">
-        <f t="shared" si="0"/>
-        <v>[18,7082,7085],</v>
-      </c>
-      <c r="DZ19">
-        <f t="shared" si="3"/>
-        <v>7085</v>
-      </c>
-      <c r="EA19">
-        <f t="shared" si="4"/>
-        <v>7082</v>
-      </c>
-      <c r="EB19">
-        <v>3</v>
-      </c>
-      <c r="EC19">
-        <v>18</v>
-      </c>
-      <c r="ED19">
-        <f t="shared" si="1"/>
-        <v>4.232505643340858E-2</v>
-      </c>
-      <c r="EE19">
-        <f t="shared" si="2"/>
-        <v>0.76185101580135439</v>
-      </c>
-    </row>
-    <row r="20" spans="1:135" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:124" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
@@ -32574,34 +32370,8 @@
         <f t="shared" si="95"/>
         <v>1000</v>
       </c>
-      <c r="DX20" t="str">
-        <f t="shared" si="0"/>
-        <v>[19,7085,7087],</v>
-      </c>
-      <c r="DZ20">
-        <f t="shared" si="3"/>
-        <v>7087</v>
-      </c>
-      <c r="EA20">
-        <f t="shared" si="4"/>
-        <v>7085</v>
-      </c>
-      <c r="EB20">
-        <v>2</v>
-      </c>
-      <c r="EC20">
-        <v>19</v>
-      </c>
-      <c r="ED20">
-        <f t="shared" si="1"/>
-        <v>2.8216704288939048E-2</v>
-      </c>
-      <c r="EE20">
-        <f t="shared" si="2"/>
-        <v>0.53611738148984189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:135" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:124" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0</v>
       </c>
@@ -33027,34 +32797,8 @@
         <f t="shared" si="95"/>
         <v>1000</v>
       </c>
-      <c r="DX21" t="str">
-        <f t="shared" si="0"/>
-        <v>[20,7087,7088],</v>
-      </c>
-      <c r="DZ21">
-        <f t="shared" si="3"/>
-        <v>7088</v>
-      </c>
-      <c r="EA21">
-        <f t="shared" si="4"/>
-        <v>7087</v>
-      </c>
-      <c r="EB21">
-        <v>1</v>
-      </c>
-      <c r="EC21">
-        <v>20</v>
-      </c>
-      <c r="ED21">
-        <f t="shared" si="1"/>
-        <v>1.4108352144469524E-2</v>
-      </c>
-      <c r="EE21">
-        <f t="shared" si="2"/>
-        <v>0.28216704288939048</v>
-      </c>
-    </row>
-    <row r="22" spans="1:135" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:124" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -33481,7 +33225,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:135" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:124" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
@@ -33907,16 +33651,8 @@
         <f t="shared" si="95"/>
         <v>1000</v>
       </c>
-      <c r="EB23">
-        <f>SUM(EB1:EB22)</f>
-        <v>7088</v>
-      </c>
-      <c r="EE23">
-        <f>SUM(EE1:EE22)/100</f>
-        <v>4.0073363431151252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:135" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:124" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
@@ -34343,7 +34079,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:135" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:124" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
@@ -34770,7 +34506,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:135" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:124" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0</v>
       </c>
@@ -35059,7 +34795,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:135" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:124" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0</v>
       </c>
@@ -35072,7 +34808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:135" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:124" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0</v>
       </c>
@@ -35085,7 +34821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:135" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:124" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0</v>
       </c>
@@ -35190,7 +34926,7 @@
         <v>[1,50,115,0,1000]</v>
       </c>
     </row>
-    <row r="30" spans="1:135" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:124" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>-1</v>
       </c>
@@ -35295,7 +35031,7 @@
         <v>[2,115,190,0,1000]</v>
       </c>
     </row>
-    <row r="31" spans="1:135" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:124" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0</v>
       </c>
@@ -35400,7 +35136,7 @@
         <v>[3,190,290,0,1000]</v>
       </c>
     </row>
-    <row r="32" spans="1:135" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:124" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0</v>
       </c>
